--- a/simulation_study6/simParamsSummary.xlsx
+++ b/simulation_study6/simParamsSummary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ward-c\Documents\Postdoc\multipleDataBCM\simulation_study6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27AABA73-00A5-488D-85B1-776D1F9201A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E575671C-CA84-4B5E-B4FD-E3B22D0EA44F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-4785" windowWidth="25440" windowHeight="15270" xr2:uid="{172EBA67-DF58-4CEE-BF06-48D6A2384BDC}"/>
+    <workbookView xWindow="30612" yWindow="-204" windowWidth="30936" windowHeight="16776" xr2:uid="{172EBA67-DF58-4CEE-BF06-48D6A2384BDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="24">
   <si>
     <t>IType</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>deltaD</t>
+  </si>
+  <si>
+    <t>probDetect</t>
   </si>
 </sst>
 </file>
@@ -480,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{564B3836-2B17-48DB-8114-869B4A6EAD37}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -494,7 +497,7 @@
     <col min="6" max="12" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
@@ -531,8 +534,11 @@
       <c r="L1" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -569,8 +575,11 @@
       <c r="L2" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M2" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
@@ -607,8 +616,11 @@
       <c r="L3" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M3" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
@@ -645,12 +657,15 @@
       <c r="L4" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M4" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
     </row>

--- a/simulation_study6/simParamsSummary.xlsx
+++ b/simulation_study6/simParamsSummary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ward-c\Documents\Postdoc\multipleDataBCM\simulation_study6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E575671C-CA84-4B5E-B4FD-E3B22D0EA44F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077C65E5-9BBE-4B91-83A6-40F724E45F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-204" windowWidth="30936" windowHeight="16776" xr2:uid="{172EBA67-DF58-4CEE-BF06-48D6A2384BDC}"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{172EBA67-DF58-4CEE-BF06-48D6A2384BDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -486,18 +486,18 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.5546875" style="2" customWidth="1"/>
-    <col min="4" max="5" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="16.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.5703125" style="2" customWidth="1"/>
+    <col min="4" max="5" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
@@ -538,7 +538,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -561,7 +561,7 @@
         <v>0.6</v>
       </c>
       <c r="H2" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I2" s="2">
         <v>100</v>
@@ -570,7 +570,7 @@
         <v>0.1</v>
       </c>
       <c r="K2" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L2" s="2">
         <v>15</v>
@@ -579,7 +579,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
@@ -602,7 +602,7 @@
         <v>0.1</v>
       </c>
       <c r="H3" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I3" s="2">
         <v>100</v>
@@ -611,7 +611,7 @@
         <v>0.6</v>
       </c>
       <c r="K3" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L3" s="2">
         <v>15</v>
@@ -620,7 +620,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
@@ -643,7 +643,7 @@
         <v>0.35</v>
       </c>
       <c r="H4" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I4" s="2">
         <v>100</v>
@@ -652,7 +652,7 @@
         <v>0.35</v>
       </c>
       <c r="K4" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L4" s="2">
         <v>15</v>
@@ -661,11 +661,11 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
     </row>
@@ -683,9 +683,9 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -702,7 +702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -741,7 +741,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -777,7 +777,7 @@
         <v>364.16666666666669</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -816,7 +816,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -852,7 +852,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -888,7 +888,7 @@
         <v>334.33333333333331</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -924,7 +924,7 @@
         <v>295.66666666666669</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -960,7 +960,7 @@
         <v>296.5</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -996,7 +996,7 @@
         <v>346.66666666666669</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>263.66666666666669</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>0</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>6</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>7</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>8</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>9</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>10</v>
       </c>
@@ -1268,12 +1268,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="N26" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>349.14285714285717</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>404.57142857142856</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>322.42857142857144</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>4</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>336.71428571428572</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>5</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>338.14285714285717</v>
       </c>
     </row>
-    <row r="32" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>6</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>7</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>393.57142857142856</v>
       </c>
     </row>
-    <row r="34" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>8</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>317.42857142857144</v>
       </c>
     </row>
-    <row r="35" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>9</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>293.14285714285717</v>
       </c>
     </row>
-    <row r="36" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>10</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>367.42857142857144</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>4</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>5</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>6</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>7</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>8</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>9</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>10</v>
       </c>
